--- a/biology/Zoologie/Aegyptosaurus/Aegyptosaurus.xlsx
+++ b/biology/Zoologie/Aegyptosaurus/Aegyptosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegyptosaurus baharijensis
-Aegyptosaurus (« lézard égyptien ») est un genre éteint de dinosaures sauropodes, un titanosaure basal qui vivait en Égypte et alentour au début du Crétacé supérieur[2].
-Une seule espèce est rattachée au genre, Aegyptosaurus baharijensis, décrite par Ernst Stromer en 1932[1].
+Aegyptosaurus (« lézard égyptien ») est un genre éteint de dinosaures sauropodes, un titanosaure basal qui vivait en Égypte et alentour au début du Crétacé supérieur.
+Une seule espèce est rattachée au genre, Aegyptosaurus baharijensis, décrite par Ernst Stromer en 1932.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Découvertes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses restes fossiles ont tous été découverts avant 1939, en Égypte, au Niger dans la formation de Farak, et sur plusieurs sites du désert du Sahara. Ces fossiles, tous conservés à Munich, ont été détruits lors d'un bombardement allié lors de la Seconde Guerre mondiale en 1944.
 L'holotype provient de la formation géologique de Baharîje dans le gouvernorat de Marsa-Matruh (nord-ouest de l'Égypte). Cette formation est datée du Cénomanien, soit il y a environ entre 100,5 et 93,9 millions d'années.
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un assez grand sauropode, un quadrupède herbivore qui a un long cou, une longue queue et une petite tête.
-En 2010, Thomas Holtz estime sa longueur totale à 16 mètres pour une masse de l'ordre de 12 tonnes[3].
+En 2010, Thomas Holtz estime sa longueur totale à 16 mètres pour une masse de l'ordre de 12 tonnes.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est considéré comme un titanosaure assez basal[2], faisant partie d'un groupe d'animaux qui sont parfois qualifiés, de façon informelle, de « titanosaures intermédiaires ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est considéré comme un titanosaure assez basal, faisant partie d'un groupe d'animaux qui sont parfois qualifiés, de façon informelle, de « titanosaures intermédiaires ».
 </t>
         </is>
       </c>
